--- a/Ganttchart.xlsx
+++ b/Ganttchart.xlsx
@@ -19,7 +19,7 @@
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
     <definedName name="today" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1745,8 +1745,8 @@
   <dimension ref="A1:BL41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>

--- a/Ganttchart.xlsx
+++ b/Ganttchart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27504"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="250" documentId="8_{E28D224A-5405-42EC-8BE8-514F71532952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54472EC7-BE9B-4152-90FA-4E2A9DCBFC32}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D2BFD4-146F-43E6-A8CF-FE36B0F36950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -289,16 +289,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;£&quot;* #,##0_);_(&quot;£&quot;* \(#,##0\);_(&quot;£&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="ddd\,\ dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;£&quot;* #,##0_);_(&quot;£&quot;* \(#,##0\);_(&quot;£&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="170" formatCode="d"/>
+    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,7 +922,7 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -931,10 +931,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
@@ -944,9 +944,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1047,13 +1047,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,16 +1065,16 @@
     <xf numFmtId="9" fontId="4" fillId="36" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="36" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="7" fillId="36" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,16 +1086,16 @@
     <xf numFmtId="9" fontId="4" fillId="37" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="37" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="7" fillId="37" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,34 +1107,34 @@
     <xf numFmtId="9" fontId="4" fillId="38" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="169" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,7 +1186,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
@@ -1871,25 +1871,25 @@
   <dimension ref="A1:BL40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1902,7 @@
       <c r="F1" s="16"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
@@ -1910,105 +1910,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="23"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="54">
         <v>45342</v>
       </c>
       <c r="F3" s="54"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="49">
+      <c r="I4" s="51">
         <v>45342</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="49">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="51">
         <v>45349</v>
       </c>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="49">
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="51">
         <v>45356</v>
       </c>
-      <c r="X4" s="50"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="50"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="50"/>
-      <c r="AC4" s="51"/>
-      <c r="AD4" s="49">
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="51">
         <v>45363</v>
       </c>
-      <c r="AE4" s="50"/>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50"/>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50"/>
-      <c r="AJ4" s="51"/>
-      <c r="AK4" s="49">
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="51">
         <v>45370</v>
       </c>
-      <c r="AL4" s="50"/>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="49">
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="51">
         <v>45377</v>
       </c>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="49">
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="51">
         <v>45384</v>
       </c>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50"/>
-      <c r="BB4" s="50"/>
-      <c r="BC4" s="50"/>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="49">
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="51">
         <v>45391</v>
       </c>
-      <c r="BG4" s="50"/>
-      <c r="BH4" s="50"/>
-      <c r="BI4" s="50"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="50"/>
-      <c r="BL4" s="51"/>
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="53"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>45397</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1">
+    <row r="6" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
@@ -2490,14 +2490,14 @@
         <v>M</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="20"/>
       <c r="E7"/>
       <c r="H7" t="str">
-        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I7" s="14"/>
@@ -2557,7 +2557,7 @@
       <c r="BK7" s="14"/>
       <c r="BL7" s="14"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H35" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H35" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="14"/>
@@ -2630,7 +2630,7 @@
       <c r="BK8" s="14"/>
       <c r="BL8" s="14"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>20</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I9" s="14"/>
@@ -2711,7 +2711,7 @@
       <c r="BK9" s="14"/>
       <c r="BL9" s="14"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I10" s="14"/>
@@ -2792,7 +2792,7 @@
       <c r="BK10" s="14"/>
       <c r="BL10" s="14"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="B11" s="33" t="s">
         <v>26</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I11" s="14"/>
@@ -2871,7 +2871,7 @@
       <c r="BK11" s="14"/>
       <c r="BL11" s="14"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="33" t="s">
         <v>28</v>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I12" s="14"/>
@@ -2950,7 +2950,7 @@
       <c r="BK12" s="14"/>
       <c r="BL12" s="14"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="33" t="s">
         <v>30</v>
@@ -3026,7 +3026,7 @@
       <c r="BK13" s="14"/>
       <c r="BL13" s="14"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="33" t="s">
         <v>32</v>
@@ -3102,7 +3102,7 @@
       <c r="BK14" s="14"/>
       <c r="BL14" s="14"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="33" t="s">
         <v>34</v>
@@ -3178,7 +3178,7 @@
       <c r="BK15" s="14"/>
       <c r="BL15" s="14"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="33" t="s">
         <v>36</v>
@@ -3197,7 +3197,7 @@
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="I16" s="14"/>
@@ -3257,7 +3257,7 @@
       <c r="BK16" s="14"/>
       <c r="BL16" s="14"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>38</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="F17" s="46"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I17" s="14"/>
@@ -3330,7 +3330,7 @@
       <c r="BK17" s="14"/>
       <c r="BL17" s="14"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="47" t="s">
         <v>40</v>
@@ -3338,7 +3338,9 @@
       <c r="C18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="44">
+        <v>1</v>
+      </c>
       <c r="E18" s="48">
         <f>E16+1</f>
         <v>45343</v>
@@ -3348,7 +3350,7 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="I18" s="14"/>
@@ -3408,7 +3410,7 @@
       <c r="BK18" s="14"/>
       <c r="BL18" s="14"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="47" t="s">
         <v>42</v>
@@ -3416,7 +3418,9 @@
       <c r="C19" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="44">
+        <v>1</v>
+      </c>
       <c r="E19" s="48">
         <v>45355</v>
       </c>
@@ -3425,7 +3429,7 @@
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I19" s="14"/>
@@ -3485,7 +3489,7 @@
       <c r="BK19" s="14"/>
       <c r="BL19" s="14"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="47" t="s">
         <v>44</v>
@@ -3493,7 +3497,9 @@
       <c r="C20" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="44">
+        <v>1</v>
+      </c>
       <c r="E20" s="48">
         <f>F19</f>
         <v>45362</v>
@@ -3503,7 +3509,7 @@
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I20" s="14"/>
@@ -3563,7 +3569,7 @@
       <c r="BK20" s="14"/>
       <c r="BL20" s="14"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="47" t="s">
         <v>46</v>
@@ -3571,7 +3577,9 @@
       <c r="C21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="44">
+        <v>1</v>
+      </c>
       <c r="E21" s="48">
         <v>45369</v>
       </c>
@@ -3580,7 +3588,7 @@
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I21" s="14"/>
@@ -3640,7 +3648,7 @@
       <c r="BK21" s="14"/>
       <c r="BL21" s="14"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="47" t="s">
         <v>48</v>
@@ -3648,7 +3656,9 @@
       <c r="C22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="44">
+        <v>0</v>
+      </c>
       <c r="E22" s="48">
         <v>45376</v>
       </c>
@@ -3714,7 +3724,7 @@
       <c r="BK22" s="14"/>
       <c r="BL22" s="14"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="47" t="s">
         <v>49</v>
@@ -3722,7 +3732,9 @@
       <c r="C23" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="44">
+        <v>0</v>
+      </c>
       <c r="E23" s="48">
         <v>45383</v>
       </c>
@@ -3731,7 +3743,7 @@
       </c>
       <c r="G23" s="13"/>
       <c r="H23" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I23" s="14"/>
@@ -3791,7 +3803,7 @@
       <c r="BK23" s="14"/>
       <c r="BL23" s="14"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>50</v>
       </c>
@@ -3801,7 +3813,9 @@
       <c r="C24" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="44">
+        <v>0</v>
+      </c>
       <c r="E24" s="48">
         <v>45362</v>
       </c>
@@ -3810,7 +3824,7 @@
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="I24" s="14"/>
@@ -3870,7 +3884,7 @@
       <c r="BK24" s="14"/>
       <c r="BL24" s="14"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="35" t="s">
         <v>52</v>
@@ -3881,7 +3895,7 @@
       <c r="F25" s="39"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I25" s="14"/>
@@ -3941,7 +3955,7 @@
       <c r="BK25" s="14"/>
       <c r="BL25" s="14"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="40" t="s">
         <v>53</v>
@@ -3949,7 +3963,9 @@
       <c r="C26" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="37"/>
+      <c r="D26" s="37">
+        <v>1</v>
+      </c>
       <c r="E26" s="41">
         <v>45348</v>
       </c>
@@ -3958,7 +3974,7 @@
       </c>
       <c r="G26" s="13"/>
       <c r="H26" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I26" s="14"/>
@@ -4018,7 +4034,7 @@
       <c r="BK26" s="14"/>
       <c r="BL26" s="14"/>
     </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="40" t="s">
         <v>54</v>
@@ -4026,7 +4042,9 @@
       <c r="C27" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>1</v>
+      </c>
       <c r="E27" s="41">
         <v>45348</v>
       </c>
@@ -4035,7 +4053,7 @@
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I27" s="14"/>
@@ -4095,7 +4113,7 @@
       <c r="BK27" s="14"/>
       <c r="BL27" s="14"/>
     </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="40" t="s">
         <v>55</v>
@@ -4103,7 +4121,9 @@
       <c r="C28" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="37">
+        <v>1</v>
+      </c>
       <c r="E28" s="41">
         <v>45348</v>
       </c>
@@ -4112,7 +4132,7 @@
       </c>
       <c r="G28" s="13"/>
       <c r="H28" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I28" s="14"/>
@@ -4172,7 +4192,7 @@
       <c r="BK28" s="14"/>
       <c r="BL28" s="14"/>
     </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="40" t="s">
         <v>56</v>
@@ -4180,7 +4200,9 @@
       <c r="C29" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="37"/>
+      <c r="D29" s="37">
+        <v>1</v>
+      </c>
       <c r="E29" s="41">
         <v>45348</v>
       </c>
@@ -4189,7 +4211,7 @@
       </c>
       <c r="G29" s="13"/>
       <c r="H29" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I29" s="14"/>
@@ -4249,7 +4271,7 @@
       <c r="BK29" s="14"/>
       <c r="BL29" s="14"/>
     </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
         <v>50</v>
       </c>
@@ -4259,7 +4281,9 @@
       <c r="C30" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="37"/>
+      <c r="D30" s="37">
+        <v>1</v>
+      </c>
       <c r="E30" s="41">
         <v>45348</v>
       </c>
@@ -4268,7 +4292,7 @@
       </c>
       <c r="G30" s="13"/>
       <c r="H30" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I30" s="14"/>
@@ -4328,7 +4352,7 @@
       <c r="BK30" s="14"/>
       <c r="BL30" s="14"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="40" t="s">
         <v>59</v>
@@ -4336,7 +4360,9 @@
       <c r="C31" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="37">
+        <v>1</v>
+      </c>
       <c r="E31" s="41">
         <v>45348</v>
       </c>
@@ -4345,7 +4371,7 @@
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I31" s="14"/>
@@ -4405,7 +4431,7 @@
       <c r="BK31" s="14"/>
       <c r="BL31" s="14"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="40" t="s">
         <v>61</v>
@@ -4413,7 +4439,9 @@
       <c r="C32" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="37"/>
+      <c r="D32" s="37">
+        <v>1</v>
+      </c>
       <c r="E32" s="41">
         <v>45348</v>
       </c>
@@ -4422,7 +4450,7 @@
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I32" s="14"/>
@@ -4482,7 +4510,7 @@
       <c r="BK32" s="14"/>
       <c r="BL32" s="14"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="40" t="s">
         <v>62</v>
@@ -4490,7 +4518,9 @@
       <c r="C33" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="37">
+        <v>1</v>
+      </c>
       <c r="E33" s="41">
         <v>45348</v>
       </c>
@@ -4499,7 +4529,7 @@
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I33" s="14"/>
@@ -4559,7 +4589,7 @@
       <c r="BK33" s="14"/>
       <c r="BL33" s="14"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="40" t="s">
         <v>63</v>
@@ -4567,7 +4597,9 @@
       <c r="C34" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="37">
+        <v>1</v>
+      </c>
       <c r="E34" s="41">
         <v>45348</v>
       </c>
@@ -4576,7 +4608,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="I34" s="14"/>
@@ -4636,7 +4668,7 @@
       <c r="BK34" s="14"/>
       <c r="BL34" s="14"/>
     </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>65</v>
       </c>
@@ -4646,7 +4678,9 @@
       <c r="C35" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="37">
+        <v>0.35</v>
+      </c>
       <c r="E35" s="41">
         <v>45348</v>
       </c>
@@ -4655,7 +4689,7 @@
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="I35" s="14"/>
@@ -4715,12 +4749,12 @@
       <c r="BK35" s="14"/>
       <c r="BL35" s="14"/>
     </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1">
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -4728,26 +4762,26 @@
       <c r="F37" s="3"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="11"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="35">
@@ -4890,35 +4924,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5206,14 +5211,72 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Ganttchart.xlsx
+++ b/Ganttchart.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D2BFD4-146F-43E6-A8CF-FE36B0F36950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="8_{E28D224A-5405-42EC-8BE8-514F71532952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B102683-984B-40AE-991E-54983AA7FAE2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Create a Project Schedule in this worksheet.
 Enter title of this project in cell B1. 
@@ -174,7 +174,7 @@
     <t>Github</t>
   </si>
   <si>
-    <t>Saif</t>
+    <t>Saif, Fahim</t>
   </si>
   <si>
     <t>Peer review</t>
@@ -232,7 +232,7 @@
     <t>Task 7</t>
   </si>
   <si>
-    <t>Interface and Main code</t>
+    <t>Saif</t>
   </si>
   <si>
     <t>login page</t>
@@ -241,7 +241,7 @@
     <t>register page</t>
   </si>
   <si>
-    <t>update task</t>
+    <t>logout</t>
   </si>
   <si>
     <t>assigntask</t>
@@ -282,6 +282,54 @@
   <si>
     <t>This row marks the end of the Project Schedule. DO NOT enter anything in this row. 
 Insert new rows ABOVE this one to continue building out your Project Schedule.</t>
+  </si>
+  <si>
+    <t>Final Code</t>
+  </si>
+  <si>
+    <t>dbconfig.php</t>
+  </si>
+  <si>
+    <t>export.php</t>
+  </si>
+  <si>
+    <t>login.php</t>
+  </si>
+  <si>
+    <t>logout.php</t>
+  </si>
+  <si>
+    <t>register.php</t>
+  </si>
+  <si>
+    <t>edit_task.php</t>
+  </si>
+  <si>
+    <t>edit_task_admin.php</t>
+  </si>
+  <si>
+    <t>login.php(frontend)</t>
+  </si>
+  <si>
+    <t>registration_failure.php</t>
+  </si>
+  <si>
+    <t>registration_success.php</t>
+  </si>
+  <si>
+    <t>supervisor.php</t>
+  </si>
+  <si>
+    <t>admin_dashboard.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saif </t>
+  </si>
+  <si>
+    <t>assigned_tasks.php</t>
+  </si>
+  <si>
+    <t>complete_task.php</t>
   </si>
 </sst>
 </file>
@@ -289,16 +337,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;£&quot;* #,##0_);_(&quot;£&quot;* \(#,##0\);_(&quot;£&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="ddd\,\ dd/mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="d/m/yy;@"/>
-    <numFmt numFmtId="170" formatCode="d"/>
-    <numFmt numFmtId="171" formatCode="d\ mmm\ yyyy"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;£&quot;* #,##0_);_(&quot;£&quot;* \(#,##0\);_(&quot;£&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;£&quot;* #,##0.00_);_(&quot;£&quot;* \(#,##0.00\);_(&quot;£&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="ddd\,\ dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="168" formatCode="d"/>
+    <numFmt numFmtId="169" formatCode="d\ mmm\ yyyy"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,20 +431,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -496,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,6 +746,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -921,8 +961,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -931,10 +971,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
@@ -943,49 +983,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1000,9 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,8 +1052,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,12 +1064,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1047,13 +1079,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,16 +1097,16 @@
     <xf numFmtId="9" fontId="4" fillId="36" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="36" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="36" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="36" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="7" fillId="36" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,16 +1118,16 @@
     <xf numFmtId="9" fontId="4" fillId="37" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="37" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="7" fillId="37" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,34 +1139,55 @@
     <xf numFmtId="9" fontId="4" fillId="38" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="38" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="38" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="169" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
+    <xf numFmtId="167" fontId="7" fillId="38" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="39" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="39" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="2" xfId="12" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="39" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="9">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="3" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,7 +1239,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Project Start" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
     <cellStyle name="Task" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
@@ -1194,7 +1247,397 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="69">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1501,15 +1944,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
-      <tableStyleElement type="lastColumn" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="68"/>
+      <tableStyleElement type="headerRow" dxfId="67"/>
+      <tableStyleElement type="totalRow" dxfId="66"/>
+      <tableStyleElement type="firstColumn" dxfId="65"/>
+      <tableStyleElement type="lastColumn" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1868,2906 +2311,4083 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL40"/>
+  <dimension ref="A1:BL51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:64" ht="30" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="16"/>
+      <c r="F1" s="13"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:64" ht="30" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:64" ht="30" customHeight="1">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="54">
+      <c r="D3" s="56"/>
+      <c r="E3" s="57">
         <v>45342</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:64" ht="30" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="45">
         <v>45342</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="51">
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="45">
         <v>45349</v>
       </c>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="51">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="45">
         <v>45356</v>
       </c>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="51">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="47"/>
+      <c r="AD4" s="45">
         <v>45363</v>
       </c>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="51">
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="47"/>
+      <c r="AK4" s="45">
         <v>45370</v>
       </c>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="51">
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="45">
         <v>45377</v>
       </c>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="51">
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="46"/>
+      <c r="AU4" s="46"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="47"/>
+      <c r="AY4" s="45">
         <v>45384</v>
       </c>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="51">
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="47"/>
+      <c r="BF4" s="45">
         <v>45391</v>
       </c>
-      <c r="BG4" s="52"/>
-      <c r="BH4" s="52"/>
-      <c r="BI4" s="52"/>
-      <c r="BJ4" s="52"/>
-      <c r="BK4" s="52"/>
-      <c r="BL4" s="53"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
+      <c r="BI4" s="46"/>
+      <c r="BJ4" s="46"/>
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="47"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:64" ht="15" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="I5" s="25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="I5" s="21">
         <v>45342</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="22">
         <f>I5+1</f>
         <v>45343</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="22">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>45344</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="22">
         <f t="shared" si="0"/>
         <v>45345</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="22">
         <f t="shared" si="0"/>
         <v>45346</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="22">
         <f t="shared" si="0"/>
         <v>45347</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="23">
         <f t="shared" si="0"/>
         <v>45348</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="21">
         <f>O5+1</f>
         <v>45349</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="22">
         <f>P5+1</f>
         <v>45350</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="22">
         <f t="shared" si="0"/>
         <v>45351</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="22">
         <f t="shared" si="0"/>
         <v>45352</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="22">
         <f t="shared" si="0"/>
         <v>45353</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="22">
         <f t="shared" si="0"/>
         <v>45354</v>
       </c>
-      <c r="V5" s="27">
+      <c r="V5" s="23">
         <f t="shared" si="0"/>
         <v>45355</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5" s="21">
         <f>V5+1</f>
         <v>45356</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="22">
         <f>W5+1</f>
         <v>45357</v>
       </c>
-      <c r="Y5" s="26">
+      <c r="Y5" s="22">
         <f t="shared" si="0"/>
         <v>45358</v>
       </c>
-      <c r="Z5" s="26">
+      <c r="Z5" s="22">
         <f t="shared" si="0"/>
         <v>45359</v>
       </c>
-      <c r="AA5" s="26">
+      <c r="AA5" s="22">
         <f t="shared" si="0"/>
         <v>45360</v>
       </c>
-      <c r="AB5" s="26">
+      <c r="AB5" s="22">
         <f t="shared" si="0"/>
         <v>45361</v>
       </c>
-      <c r="AC5" s="27">
+      <c r="AC5" s="23">
         <f t="shared" si="0"/>
         <v>45362</v>
       </c>
-      <c r="AD5" s="25">
+      <c r="AD5" s="21">
         <f>AC5+1</f>
         <v>45363</v>
       </c>
-      <c r="AE5" s="26">
+      <c r="AE5" s="22">
         <f>AD5+1</f>
         <v>45364</v>
       </c>
-      <c r="AF5" s="26">
+      <c r="AF5" s="22">
         <f t="shared" si="0"/>
         <v>45365</v>
       </c>
-      <c r="AG5" s="26">
+      <c r="AG5" s="22">
         <f t="shared" si="0"/>
         <v>45366</v>
       </c>
-      <c r="AH5" s="26">
+      <c r="AH5" s="22">
         <f t="shared" si="0"/>
         <v>45367</v>
       </c>
-      <c r="AI5" s="26">
+      <c r="AI5" s="22">
         <f t="shared" si="0"/>
         <v>45368</v>
       </c>
-      <c r="AJ5" s="27">
+      <c r="AJ5" s="23">
         <f t="shared" si="0"/>
         <v>45369</v>
       </c>
-      <c r="AK5" s="25">
+      <c r="AK5" s="21">
         <f>AJ5+1</f>
         <v>45370</v>
       </c>
-      <c r="AL5" s="26">
+      <c r="AL5" s="22">
         <f>AK5+1</f>
         <v>45371</v>
       </c>
-      <c r="AM5" s="26">
+      <c r="AM5" s="22">
         <f t="shared" si="0"/>
         <v>45372</v>
       </c>
-      <c r="AN5" s="26">
+      <c r="AN5" s="22">
         <f t="shared" si="0"/>
         <v>45373</v>
       </c>
-      <c r="AO5" s="26">
+      <c r="AO5" s="22">
         <f t="shared" si="0"/>
         <v>45374</v>
       </c>
-      <c r="AP5" s="26">
+      <c r="AP5" s="22">
         <f t="shared" si="0"/>
         <v>45375</v>
       </c>
-      <c r="AQ5" s="27">
+      <c r="AQ5" s="23">
         <f t="shared" si="0"/>
         <v>45376</v>
       </c>
-      <c r="AR5" s="25">
+      <c r="AR5" s="21">
         <f>AQ5+1</f>
         <v>45377</v>
       </c>
-      <c r="AS5" s="26">
+      <c r="AS5" s="22">
         <f>AR5+1</f>
         <v>45378</v>
       </c>
-      <c r="AT5" s="26">
+      <c r="AT5" s="22">
         <f t="shared" si="0"/>
         <v>45379</v>
       </c>
-      <c r="AU5" s="26">
+      <c r="AU5" s="22">
         <f t="shared" si="0"/>
         <v>45380</v>
       </c>
-      <c r="AV5" s="26">
+      <c r="AV5" s="22">
         <f t="shared" si="0"/>
         <v>45381</v>
       </c>
-      <c r="AW5" s="26">
+      <c r="AW5" s="22">
         <f t="shared" si="0"/>
         <v>45382</v>
       </c>
-      <c r="AX5" s="27">
+      <c r="AX5" s="23">
         <f t="shared" si="0"/>
         <v>45383</v>
       </c>
-      <c r="AY5" s="25">
+      <c r="AY5" s="21">
         <f>AX5+1</f>
         <v>45384</v>
       </c>
-      <c r="AZ5" s="26">
+      <c r="AZ5" s="22">
         <f>AY5+1</f>
         <v>45385</v>
       </c>
-      <c r="BA5" s="26">
+      <c r="BA5" s="22">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>45386</v>
       </c>
-      <c r="BB5" s="26">
+      <c r="BB5" s="22">
         <f t="shared" si="1"/>
         <v>45387</v>
       </c>
-      <c r="BC5" s="26">
+      <c r="BC5" s="22">
         <f t="shared" si="1"/>
         <v>45388</v>
       </c>
-      <c r="BD5" s="26">
+      <c r="BD5" s="22">
         <f t="shared" si="1"/>
         <v>45389</v>
       </c>
-      <c r="BE5" s="27">
+      <c r="BE5" s="23">
         <f t="shared" si="1"/>
         <v>45390</v>
       </c>
-      <c r="BF5" s="25">
+      <c r="BF5" s="21">
         <f>BE5+1</f>
         <v>45391</v>
       </c>
-      <c r="BG5" s="26">
+      <c r="BG5" s="22">
         <f>BF5+1</f>
         <v>45392</v>
       </c>
-      <c r="BH5" s="26">
+      <c r="BH5" s="22">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>45393</v>
       </c>
-      <c r="BI5" s="26">
+      <c r="BI5" s="22">
         <f t="shared" si="2"/>
         <v>45394</v>
       </c>
-      <c r="BJ5" s="26">
+      <c r="BJ5" s="22">
         <f t="shared" si="2"/>
         <v>45395</v>
       </c>
-      <c r="BK5" s="26">
+      <c r="BK5" s="22">
         <f t="shared" si="2"/>
         <v>45396</v>
       </c>
-      <c r="BL5" s="27">
+      <c r="BL5" s="23">
         <f t="shared" si="2"/>
         <v>45397</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:64" ht="30" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="9" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>T</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="9" t="str">
         <f t="shared" ref="J6:AR6" si="4">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="K6" s="10" t="str">
+      <c r="K6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="M6" s="10" t="str">
+      <c r="M6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="N6" s="10" t="str">
+      <c r="N6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="P6" s="10" t="str">
+      <c r="P6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="Q6" s="10" t="str">
+      <c r="Q6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="R6" s="10" t="str">
+      <c r="R6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="S6" s="10" t="str">
+      <c r="S6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="T6" s="10" t="str">
+      <c r="T6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="U6" s="10" t="str">
+      <c r="U6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="V6" s="10" t="str">
+      <c r="V6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="W6" s="10" t="str">
+      <c r="W6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="X6" s="10" t="str">
+      <c r="X6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="Y6" s="10" t="str">
+      <c r="Y6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="Z6" s="10" t="str">
+      <c r="Z6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AA6" s="10" t="str">
+      <c r="AA6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AB6" s="10" t="str">
+      <c r="AB6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AC6" s="10" t="str">
+      <c r="AC6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AD6" s="10" t="str">
+      <c r="AD6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AE6" s="10" t="str">
+      <c r="AE6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AF6" s="10" t="str">
+      <c r="AF6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AG6" s="10" t="str">
+      <c r="AG6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AH6" s="10" t="str">
+      <c r="AH6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AI6" s="10" t="str">
+      <c r="AI6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AJ6" s="10" t="str">
+      <c r="AJ6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AK6" s="10" t="str">
+      <c r="AK6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AL6" s="10" t="str">
+      <c r="AL6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>W</v>
       </c>
-      <c r="AM6" s="10" t="str">
+      <c r="AM6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AN6" s="10" t="str">
+      <c r="AN6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>F</v>
       </c>
-      <c r="AO6" s="10" t="str">
+      <c r="AO6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AP6" s="10" t="str">
+      <c r="AP6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>S</v>
       </c>
-      <c r="AQ6" s="10" t="str">
+      <c r="AQ6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>M</v>
       </c>
-      <c r="AR6" s="10" t="str">
+      <c r="AR6" s="9" t="str">
         <f t="shared" si="4"/>
         <v>T</v>
       </c>
-      <c r="AS6" s="10" t="str">
+      <c r="AS6" s="9" t="str">
         <f t="shared" ref="AS6:BL6" si="5">LEFT(TEXT(AS5,"ddd"),1)</f>
         <v>W</v>
       </c>
-      <c r="AT6" s="10" t="str">
+      <c r="AT6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AU6" s="10" t="str">
+      <c r="AU6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="AV6" s="10" t="str">
+      <c r="AV6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AW6" s="10" t="str">
+      <c r="AW6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="AX6" s="10" t="str">
+      <c r="AX6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="AY6" s="10" t="str">
+      <c r="AY6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="AZ6" s="10" t="str">
+      <c r="AZ6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BA6" s="10" t="str">
+      <c r="BA6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BB6" s="10" t="str">
+      <c r="BB6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BC6" s="10" t="str">
+      <c r="BC6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BD6" s="10" t="str">
+      <c r="BD6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BE6" s="10" t="str">
+      <c r="BE6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
-      <c r="BF6" s="10" t="str">
+      <c r="BF6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BG6" s="10" t="str">
+      <c r="BG6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>W</v>
       </c>
-      <c r="BH6" s="10" t="str">
+      <c r="BH6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>T</v>
       </c>
-      <c r="BI6" s="10" t="str">
+      <c r="BI6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>F</v>
       </c>
-      <c r="BJ6" s="10" t="str">
+      <c r="BJ6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BK6" s="10" t="str">
+      <c r="BK6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>S</v>
       </c>
-      <c r="BL6" s="10" t="str">
+      <c r="BL6" s="9" t="str">
         <f t="shared" si="5"/>
         <v>M</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1">
+      <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="16"/>
       <c r="E7"/>
       <c r="H7" t="str">
-        <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f ca="1">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="14"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="14"/>
-      <c r="AL7" s="14"/>
-      <c r="AM7" s="14"/>
-      <c r="AN7" s="14"/>
-      <c r="AO7" s="14"/>
-      <c r="AP7" s="14"/>
-      <c r="AQ7" s="14"/>
-      <c r="AR7" s="14"/>
-      <c r="AS7" s="14"/>
-      <c r="AT7" s="14"/>
-      <c r="AU7" s="14"/>
-      <c r="AV7" s="14"/>
-      <c r="AW7" s="14"/>
-      <c r="AX7" s="14"/>
-      <c r="AY7" s="14"/>
-      <c r="AZ7" s="14"/>
-      <c r="BA7" s="14"/>
-      <c r="BB7" s="14"/>
-      <c r="BC7" s="14"/>
-      <c r="BD7" s="14"/>
-      <c r="BE7" s="14"/>
-      <c r="BF7" s="14"/>
-      <c r="BG7" s="14"/>
-      <c r="BH7" s="14"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="14"/>
-      <c r="BK7" s="14"/>
-      <c r="BL7" s="14"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="11"/>
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="11"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="11"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="11"/>
+      <c r="BE7" s="11"/>
+      <c r="BF7" s="11"/>
+      <c r="BG7" s="11"/>
+      <c r="BH7" s="11"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="11"/>
+      <c r="BK7" s="11"/>
+      <c r="BL7" s="11"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13" t="str">
-        <f t="shared" ref="H8:H35" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10" t="str">
+        <f t="shared" ref="H8:H51" ca="1" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="14"/>
-      <c r="AM8" s="14"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="14"/>
-      <c r="AP8" s="14"/>
-      <c r="AQ8" s="14"/>
-      <c r="AR8" s="14"/>
-      <c r="AS8" s="14"/>
-      <c r="AT8" s="14"/>
-      <c r="AU8" s="14"/>
-      <c r="AV8" s="14"/>
-      <c r="AW8" s="14"/>
-      <c r="AX8" s="14"/>
-      <c r="AY8" s="14"/>
-      <c r="AZ8" s="14"/>
-      <c r="BA8" s="14"/>
-      <c r="BB8" s="14"/>
-      <c r="BC8" s="14"/>
-      <c r="BD8" s="14"/>
-      <c r="BE8" s="14"/>
-      <c r="BF8" s="14"/>
-      <c r="BG8" s="14"/>
-      <c r="BH8" s="14"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="14"/>
-      <c r="BK8" s="14"/>
-      <c r="BL8" s="14"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+      <c r="BK8" s="11"/>
+      <c r="BL8" s="11"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="26">
         <v>1</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="30">
         <v>45342</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="30">
         <v>45355</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13">
-        <f t="shared" si="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="14"/>
-      <c r="AH9" s="14"/>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
-      <c r="AK9" s="14"/>
-      <c r="AL9" s="14"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
-      <c r="AP9" s="14"/>
-      <c r="AQ9" s="14"/>
-      <c r="AR9" s="14"/>
-      <c r="AS9" s="14"/>
-      <c r="AT9" s="14"/>
-      <c r="AU9" s="14"/>
-      <c r="AV9" s="14"/>
-      <c r="AW9" s="14"/>
-      <c r="AX9" s="14"/>
-      <c r="AY9" s="14"/>
-      <c r="AZ9" s="14"/>
-      <c r="BA9" s="14"/>
-      <c r="BB9" s="14"/>
-      <c r="BC9" s="14"/>
-      <c r="BD9" s="14"/>
-      <c r="BE9" s="14"/>
-      <c r="BF9" s="14"/>
-      <c r="BG9" s="14"/>
-      <c r="BH9" s="14"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="14"/>
-      <c r="BK9" s="14"/>
-      <c r="BL9" s="14"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="11"/>
+      <c r="BE9" s="11"/>
+      <c r="BF9" s="11"/>
+      <c r="BG9" s="11"/>
+      <c r="BH9" s="11"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="11"/>
+      <c r="BK9" s="11"/>
+      <c r="BL9" s="11"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="30">
         <v>45342</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="30">
         <v>45355</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13">
-        <f t="shared" si="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="14"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="14"/>
-      <c r="AW10" s="14"/>
-      <c r="AX10" s="14"/>
-      <c r="AY10" s="14"/>
-      <c r="AZ10" s="14"/>
-      <c r="BA10" s="14"/>
-      <c r="BB10" s="14"/>
-      <c r="BC10" s="14"/>
-      <c r="BD10" s="14"/>
-      <c r="BE10" s="14"/>
-      <c r="BF10" s="14"/>
-      <c r="BG10" s="14"/>
-      <c r="BH10" s="14"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="14"/>
-      <c r="BK10" s="14"/>
-      <c r="BL10" s="14"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="11"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="30">
         <v>45342</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="30">
         <v>45355</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13">
-        <f t="shared" si="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="14"/>
-      <c r="AH11" s="14"/>
-      <c r="AI11" s="14"/>
-      <c r="AJ11" s="14"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="14"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="14"/>
-      <c r="AW11" s="14"/>
-      <c r="AX11" s="14"/>
-      <c r="AY11" s="14"/>
-      <c r="AZ11" s="14"/>
-      <c r="BA11" s="14"/>
-      <c r="BB11" s="14"/>
-      <c r="BC11" s="14"/>
-      <c r="BD11" s="14"/>
-      <c r="BE11" s="14"/>
-      <c r="BF11" s="14"/>
-      <c r="BG11" s="14"/>
-      <c r="BH11" s="14"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="14"/>
-      <c r="BK11" s="14"/>
-      <c r="BL11" s="14"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="11"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="11"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="11"/>
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="11"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
+      <c r="AW11" s="11"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
+      <c r="AZ11" s="11"/>
+      <c r="BA11" s="11"/>
+      <c r="BB11" s="11"/>
+      <c r="BC11" s="11"/>
+      <c r="BD11" s="11"/>
+      <c r="BE11" s="11"/>
+      <c r="BF11" s="11"/>
+      <c r="BG11" s="11"/>
+      <c r="BH11" s="11"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="11"/>
+      <c r="BK11" s="11"/>
+      <c r="BL11" s="11"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="33" t="s">
+    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="30">
         <v>45342</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="30">
         <v>45355</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13">
-        <f t="shared" si="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="14"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="14"/>
-      <c r="AW12" s="14"/>
-      <c r="AX12" s="14"/>
-      <c r="AY12" s="14"/>
-      <c r="AZ12" s="14"/>
-      <c r="BA12" s="14"/>
-      <c r="BB12" s="14"/>
-      <c r="BC12" s="14"/>
-      <c r="BD12" s="14"/>
-      <c r="BE12" s="14"/>
-      <c r="BF12" s="14"/>
-      <c r="BG12" s="14"/>
-      <c r="BH12" s="14"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="14"/>
-      <c r="BK12" s="14"/>
-      <c r="BL12" s="14"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+      <c r="BK12" s="11"/>
+      <c r="BL12" s="11"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="14"/>
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="26">
         <v>1</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="30">
         <v>45342</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="30">
         <v>45355</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="14"/>
-      <c r="AH13" s="14"/>
-      <c r="AI13" s="14"/>
-      <c r="AJ13" s="14"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="14"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="14"/>
-      <c r="AX13" s="14"/>
-      <c r="AY13" s="14"/>
-      <c r="AZ13" s="14"/>
-      <c r="BA13" s="14"/>
-      <c r="BB13" s="14"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="14"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="14"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="14"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="14"/>
-      <c r="BK13" s="14"/>
-      <c r="BL13" s="14"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
+      <c r="BF13" s="11"/>
+      <c r="BG13" s="11"/>
+      <c r="BH13" s="11"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="11"/>
+      <c r="BK13" s="11"/>
+      <c r="BL13" s="11"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="30">
         <v>45342</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="30">
         <v>45355</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
-      <c r="BK14" s="14"/>
-      <c r="BL14" s="14"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="11"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="11"/>
+      <c r="BK14" s="11"/>
+      <c r="BL14" s="11"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="26">
         <v>1</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="30">
         <v>45342</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="30">
         <v>45355</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="14"/>
-      <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="14"/>
-      <c r="AH15" s="14"/>
-      <c r="AI15" s="14"/>
-      <c r="AJ15" s="14"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="14"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="14"/>
-      <c r="AW15" s="14"/>
-      <c r="AX15" s="14"/>
-      <c r="AY15" s="14"/>
-      <c r="AZ15" s="14"/>
-      <c r="BA15" s="14"/>
-      <c r="BB15" s="14"/>
-      <c r="BC15" s="14"/>
-      <c r="BD15" s="14"/>
-      <c r="BE15" s="14"/>
-      <c r="BF15" s="14"/>
-      <c r="BG15" s="14"/>
-      <c r="BH15" s="14"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="14"/>
-      <c r="BK15" s="14"/>
-      <c r="BL15" s="14"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
+      <c r="BF15" s="11"/>
+      <c r="BG15" s="11"/>
+      <c r="BH15" s="11"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="11"/>
+      <c r="BK15" s="11"/>
+      <c r="BL15" s="11"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="26">
         <v>1</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="30">
         <v>45342</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="30">
         <v>45355</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13">
-        <f t="shared" si="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>14</v>
       </c>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="14"/>
-      <c r="AH16" s="14"/>
-      <c r="AI16" s="14"/>
-      <c r="AJ16" s="14"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="14"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="14"/>
-      <c r="AW16" s="14"/>
-      <c r="AX16" s="14"/>
-      <c r="AY16" s="14"/>
-      <c r="AZ16" s="14"/>
-      <c r="BA16" s="14"/>
-      <c r="BB16" s="14"/>
-      <c r="BC16" s="14"/>
-      <c r="BD16" s="14"/>
-      <c r="BE16" s="14"/>
-      <c r="BF16" s="14"/>
-      <c r="BG16" s="14"/>
-      <c r="BH16" s="14"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="14"/>
-      <c r="BK16" s="14"/>
-      <c r="BL16" s="14"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+      <c r="BK16" s="11"/>
+      <c r="BL16" s="11"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13" t="str">
-        <f t="shared" si="6"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="14"/>
-      <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="14"/>
-      <c r="AI17" s="14"/>
-      <c r="AJ17" s="14"/>
-      <c r="AK17" s="14"/>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="14"/>
-      <c r="AN17" s="14"/>
-      <c r="AO17" s="14"/>
-      <c r="AP17" s="14"/>
-      <c r="AQ17" s="14"/>
-      <c r="AR17" s="14"/>
-      <c r="AS17" s="14"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="14"/>
-      <c r="AW17" s="14"/>
-      <c r="AX17" s="14"/>
-      <c r="AY17" s="14"/>
-      <c r="AZ17" s="14"/>
-      <c r="BA17" s="14"/>
-      <c r="BB17" s="14"/>
-      <c r="BC17" s="14"/>
-      <c r="BD17" s="14"/>
-      <c r="BE17" s="14"/>
-      <c r="BF17" s="14"/>
-      <c r="BG17" s="14"/>
-      <c r="BH17" s="14"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="14"/>
-      <c r="BK17" s="14"/>
-      <c r="BL17" s="14"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
+      <c r="BF17" s="11"/>
+      <c r="BG17" s="11"/>
+      <c r="BH17" s="11"/>
+      <c r="BI17" s="11"/>
+      <c r="BJ17" s="11"/>
+      <c r="BK17" s="11"/>
+      <c r="BL17" s="11"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="47" t="s">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="40">
         <v>1</v>
       </c>
-      <c r="E18" s="48">
+      <c r="E18" s="44">
         <f>E16+1</f>
         <v>45343</v>
       </c>
-      <c r="F18" s="48">
+      <c r="F18" s="44">
         <v>45355</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13">
-        <f t="shared" si="6"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>13</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="14"/>
-      <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="14"/>
-      <c r="AH18" s="14"/>
-      <c r="AI18" s="14"/>
-      <c r="AJ18" s="14"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="14"/>
-      <c r="BF18" s="14"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="14"/>
-      <c r="BK18" s="14"/>
-      <c r="BL18" s="14"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="11"/>
+      <c r="BH18" s="11"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="11"/>
+      <c r="BK18" s="11"/>
+      <c r="BL18" s="11"/>
     </row>
-    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="47" t="s">
+    <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="40">
         <v>1</v>
       </c>
-      <c r="E19" s="48">
+      <c r="E19" s="44">
         <v>45355</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="44">
         <v>45362</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
-        <f t="shared" si="6"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="14"/>
-      <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="14"/>
-      <c r="AH19" s="14"/>
-      <c r="AI19" s="14"/>
-      <c r="AJ19" s="14"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="14"/>
-      <c r="AW19" s="14"/>
-      <c r="AX19" s="14"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="14"/>
-      <c r="BA19" s="14"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="14"/>
-      <c r="BD19" s="14"/>
-      <c r="BE19" s="14"/>
-      <c r="BF19" s="14"/>
-      <c r="BG19" s="14"/>
-      <c r="BH19" s="14"/>
-      <c r="BI19" s="14"/>
-      <c r="BJ19" s="14"/>
-      <c r="BK19" s="14"/>
-      <c r="BL19" s="14"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="11"/>
+      <c r="BH19" s="11"/>
+      <c r="BI19" s="11"/>
+      <c r="BJ19" s="11"/>
+      <c r="BK19" s="11"/>
+      <c r="BL19" s="11"/>
     </row>
-    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="47" t="s">
+    <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="40">
         <v>1</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="44">
         <f>F19</f>
         <v>45362</v>
       </c>
-      <c r="F20" s="48">
+      <c r="F20" s="44">
         <v>45369</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13">
-        <f t="shared" si="6"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="14"/>
-      <c r="AH20" s="14"/>
-      <c r="AI20" s="14"/>
-      <c r="AJ20" s="14"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="14"/>
-      <c r="AW20" s="14"/>
-      <c r="AX20" s="14"/>
-      <c r="AY20" s="14"/>
-      <c r="AZ20" s="14"/>
-      <c r="BA20" s="14"/>
-      <c r="BB20" s="14"/>
-      <c r="BC20" s="14"/>
-      <c r="BD20" s="14"/>
-      <c r="BE20" s="14"/>
-      <c r="BF20" s="14"/>
-      <c r="BG20" s="14"/>
-      <c r="BH20" s="14"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="14"/>
-      <c r="BK20" s="14"/>
-      <c r="BL20" s="14"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+      <c r="BK20" s="11"/>
+      <c r="BL20" s="11"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="47" t="s">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="44">
+      <c r="D21" s="40">
         <v>1</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="44">
         <v>45369</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="44">
         <v>45376</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13">
-        <f t="shared" si="6"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="14"/>
-      <c r="AH21" s="14"/>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="14"/>
-      <c r="AL21" s="14"/>
-      <c r="AM21" s="14"/>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="14"/>
-      <c r="AQ21" s="14"/>
-      <c r="AR21" s="14"/>
-      <c r="AS21" s="14"/>
-      <c r="AT21" s="14"/>
-      <c r="AU21" s="14"/>
-      <c r="AV21" s="14"/>
-      <c r="AW21" s="14"/>
-      <c r="AX21" s="14"/>
-      <c r="AY21" s="14"/>
-      <c r="AZ21" s="14"/>
-      <c r="BA21" s="14"/>
-      <c r="BB21" s="14"/>
-      <c r="BC21" s="14"/>
-      <c r="BD21" s="14"/>
-      <c r="BE21" s="14"/>
-      <c r="BF21" s="14"/>
-      <c r="BG21" s="14"/>
-      <c r="BH21" s="14"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="14"/>
-      <c r="BK21" s="14"/>
-      <c r="BL21" s="14"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="11"/>
+      <c r="AG21" s="11"/>
+      <c r="AH21" s="11"/>
+      <c r="AI21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
+      <c r="BF21" s="11"/>
+      <c r="BG21" s="11"/>
+      <c r="BH21" s="11"/>
+      <c r="BI21" s="11"/>
+      <c r="BJ21" s="11"/>
+      <c r="BK21" s="11"/>
+      <c r="BL21" s="11"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="47" t="s">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="14"/>
+      <c r="B22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="44">
-        <v>0</v>
-      </c>
-      <c r="E22" s="48">
+      <c r="D22" s="40">
+        <v>1</v>
+      </c>
+      <c r="E22" s="44">
         <v>45376</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="44">
         <v>45383</v>
       </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="14"/>
-      <c r="AH22" s="14"/>
-      <c r="AI22" s="14"/>
-      <c r="AJ22" s="14"/>
-      <c r="AK22" s="14"/>
-      <c r="AL22" s="14"/>
-      <c r="AM22" s="14"/>
-      <c r="AN22" s="14"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="14"/>
-      <c r="AQ22" s="14"/>
-      <c r="AR22" s="14"/>
-      <c r="AS22" s="14"/>
-      <c r="AT22" s="14"/>
-      <c r="AU22" s="14"/>
-      <c r="AV22" s="14"/>
-      <c r="AW22" s="14"/>
-      <c r="AX22" s="14"/>
-      <c r="AY22" s="14"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="14"/>
-      <c r="BF22" s="14"/>
-      <c r="BG22" s="14"/>
-      <c r="BH22" s="14"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="14"/>
-      <c r="BK22" s="14"/>
-      <c r="BL22" s="14"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="11"/>
+      <c r="BF22" s="11"/>
+      <c r="BG22" s="11"/>
+      <c r="BH22" s="11"/>
+      <c r="BI22" s="11"/>
+      <c r="BJ22" s="11"/>
+      <c r="BK22" s="11"/>
+      <c r="BL22" s="11"/>
     </row>
-    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="47" t="s">
+    <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="14"/>
+      <c r="B23" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="44">
-        <v>0</v>
-      </c>
-      <c r="E23" s="48">
+      <c r="D23" s="40">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44">
         <v>45383</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="44">
         <v>45390</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13">
-        <f t="shared" si="6"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="14"/>
-      <c r="AH23" s="14"/>
-      <c r="AI23" s="14"/>
-      <c r="AJ23" s="14"/>
-      <c r="AK23" s="14"/>
-      <c r="AL23" s="14"/>
-      <c r="AM23" s="14"/>
-      <c r="AN23" s="14"/>
-      <c r="AO23" s="14"/>
-      <c r="AP23" s="14"/>
-      <c r="AQ23" s="14"/>
-      <c r="AR23" s="14"/>
-      <c r="AS23" s="14"/>
-      <c r="AT23" s="14"/>
-      <c r="AU23" s="14"/>
-      <c r="AV23" s="14"/>
-      <c r="AW23" s="14"/>
-      <c r="AX23" s="14"/>
-      <c r="AY23" s="14"/>
-      <c r="AZ23" s="14"/>
-      <c r="BA23" s="14"/>
-      <c r="BB23" s="14"/>
-      <c r="BC23" s="14"/>
-      <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="14"/>
-      <c r="BG23" s="14"/>
-      <c r="BH23" s="14"/>
-      <c r="BI23" s="14"/>
-      <c r="BJ23" s="14"/>
-      <c r="BK23" s="14"/>
-      <c r="BL23" s="14"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11"/>
+      <c r="BF23" s="11"/>
+      <c r="BG23" s="11"/>
+      <c r="BH23" s="11"/>
+      <c r="BI23" s="11"/>
+      <c r="BJ23" s="11"/>
+      <c r="BK23" s="11"/>
+      <c r="BL23" s="11"/>
     </row>
-    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="44">
-        <v>0</v>
-      </c>
-      <c r="E24" s="48">
+      <c r="C24" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="40">
+        <v>1</v>
+      </c>
+      <c r="E24" s="44">
         <v>45362</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="44">
         <v>45369</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13">
-        <f t="shared" si="6"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <f t="shared" ca="1" si="6"/>
         <v>8</v>
       </c>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="14"/>
-      <c r="AH24" s="14"/>
-      <c r="AI24" s="14"/>
-      <c r="AJ24" s="14"/>
-      <c r="AK24" s="14"/>
-      <c r="AL24" s="14"/>
-      <c r="AM24" s="14"/>
-      <c r="AN24" s="14"/>
-      <c r="AO24" s="14"/>
-      <c r="AP24" s="14"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="14"/>
-      <c r="AS24" s="14"/>
-      <c r="AT24" s="14"/>
-      <c r="AU24" s="14"/>
-      <c r="AV24" s="14"/>
-      <c r="AW24" s="14"/>
-      <c r="AX24" s="14"/>
-      <c r="AY24" s="14"/>
-      <c r="AZ24" s="14"/>
-      <c r="BA24" s="14"/>
-      <c r="BB24" s="14"/>
-      <c r="BC24" s="14"/>
-      <c r="BD24" s="14"/>
-      <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="14"/>
-      <c r="BH24" s="14"/>
-      <c r="BI24" s="14"/>
-      <c r="BJ24" s="14"/>
-      <c r="BK24" s="14"/>
-      <c r="BL24" s="14"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="11"/>
+      <c r="BF24" s="11"/>
+      <c r="BG24" s="11"/>
+      <c r="BH24" s="11"/>
+      <c r="BI24" s="11"/>
+      <c r="BJ24" s="11"/>
+      <c r="BK24" s="11"/>
+      <c r="BL24" s="11"/>
     </row>
-    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
+      <c r="BF25" s="11"/>
+      <c r="BG25" s="11"/>
+      <c r="BH25" s="11"/>
+      <c r="BI25" s="11"/>
+      <c r="BJ25" s="11"/>
+      <c r="BK25" s="11"/>
+      <c r="BL25" s="11"/>
+    </row>
+    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="33">
+        <v>1</v>
+      </c>
+      <c r="E26" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F26" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
+      <c r="BF26" s="11"/>
+      <c r="BG26" s="11"/>
+      <c r="BH26" s="11"/>
+      <c r="BI26" s="11"/>
+      <c r="BJ26" s="11"/>
+      <c r="BK26" s="11"/>
+      <c r="BL26" s="11"/>
+    </row>
+    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F27" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="11"/>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="11"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="11"/>
+    </row>
+    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F28" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
+      <c r="BF28" s="11"/>
+      <c r="BG28" s="11"/>
+      <c r="BH28" s="11"/>
+      <c r="BI28" s="11"/>
+      <c r="BJ28" s="11"/>
+      <c r="BK28" s="11"/>
+      <c r="BL28" s="11"/>
+    </row>
+    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="14"/>
+      <c r="B29" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F29" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+      <c r="BA29" s="11"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
+      <c r="BE29" s="11"/>
+      <c r="BF29" s="11"/>
+      <c r="BG29" s="11"/>
+      <c r="BH29" s="11"/>
+      <c r="BI29" s="11"/>
+      <c r="BJ29" s="11"/>
+      <c r="BK29" s="11"/>
+      <c r="BL29" s="11"/>
+    </row>
+    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F30" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="11"/>
+      <c r="BF30" s="11"/>
+      <c r="BG30" s="11"/>
+      <c r="BH30" s="11"/>
+      <c r="BI30" s="11"/>
+      <c r="BJ30" s="11"/>
+      <c r="BK30" s="11"/>
+      <c r="BL30" s="11"/>
+    </row>
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A31" s="14"/>
+      <c r="B31" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F31" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="11"/>
+      <c r="AL31" s="11"/>
+      <c r="AM31" s="11"/>
+      <c r="AN31" s="11"/>
+      <c r="AO31" s="11"/>
+      <c r="AP31" s="11"/>
+      <c r="AQ31" s="11"/>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="11"/>
+      <c r="AT31" s="11"/>
+      <c r="AU31" s="11"/>
+      <c r="AV31" s="11"/>
+      <c r="AW31" s="11"/>
+      <c r="AX31" s="11"/>
+      <c r="AY31" s="11"/>
+      <c r="AZ31" s="11"/>
+      <c r="BA31" s="11"/>
+      <c r="BB31" s="11"/>
+      <c r="BC31" s="11"/>
+      <c r="BD31" s="11"/>
+      <c r="BE31" s="11"/>
+      <c r="BF31" s="11"/>
+      <c r="BG31" s="11"/>
+      <c r="BH31" s="11"/>
+      <c r="BI31" s="11"/>
+      <c r="BJ31" s="11"/>
+      <c r="BK31" s="11"/>
+      <c r="BL31" s="11"/>
+    </row>
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F32" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="11"/>
+      <c r="AL32" s="11"/>
+      <c r="AM32" s="11"/>
+      <c r="AN32" s="11"/>
+      <c r="AO32" s="11"/>
+      <c r="AP32" s="11"/>
+      <c r="AQ32" s="11"/>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="11"/>
+      <c r="AT32" s="11"/>
+      <c r="AU32" s="11"/>
+      <c r="AV32" s="11"/>
+      <c r="AW32" s="11"/>
+      <c r="AX32" s="11"/>
+      <c r="AY32" s="11"/>
+      <c r="AZ32" s="11"/>
+      <c r="BA32" s="11"/>
+      <c r="BB32" s="11"/>
+      <c r="BC32" s="11"/>
+      <c r="BD32" s="11"/>
+      <c r="BE32" s="11"/>
+      <c r="BF32" s="11"/>
+      <c r="BG32" s="11"/>
+      <c r="BH32" s="11"/>
+      <c r="BI32" s="11"/>
+      <c r="BJ32" s="11"/>
+      <c r="BK32" s="11"/>
+      <c r="BL32" s="11"/>
+    </row>
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="33"/>
+      <c r="E33" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F33" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="11"/>
+      <c r="AL33" s="11"/>
+      <c r="AM33" s="11"/>
+      <c r="AN33" s="11"/>
+      <c r="AO33" s="11"/>
+      <c r="AP33" s="11"/>
+      <c r="AQ33" s="11"/>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="11"/>
+      <c r="AT33" s="11"/>
+      <c r="AU33" s="11"/>
+      <c r="AV33" s="11"/>
+      <c r="AW33" s="11"/>
+      <c r="AX33" s="11"/>
+      <c r="AY33" s="11"/>
+      <c r="AZ33" s="11"/>
+      <c r="BA33" s="11"/>
+      <c r="BB33" s="11"/>
+      <c r="BC33" s="11"/>
+      <c r="BD33" s="11"/>
+      <c r="BE33" s="11"/>
+      <c r="BF33" s="11"/>
+      <c r="BG33" s="11"/>
+      <c r="BH33" s="11"/>
+      <c r="BI33" s="11"/>
+      <c r="BJ33" s="11"/>
+      <c r="BK33" s="11"/>
+      <c r="BL33" s="11"/>
+    </row>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A34" s="14"/>
+      <c r="B34" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="33"/>
+      <c r="E34" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F34" s="37">
+        <v>45365</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="11"/>
+      <c r="AL34" s="11"/>
+      <c r="AM34" s="11"/>
+      <c r="AN34" s="11"/>
+      <c r="AO34" s="11"/>
+      <c r="AP34" s="11"/>
+      <c r="AQ34" s="11"/>
+      <c r="AR34" s="11"/>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="11"/>
+      <c r="AU34" s="11"/>
+      <c r="AV34" s="11"/>
+      <c r="AW34" s="11"/>
+      <c r="AX34" s="11"/>
+      <c r="AY34" s="11"/>
+      <c r="AZ34" s="11"/>
+      <c r="BA34" s="11"/>
+      <c r="BB34" s="11"/>
+      <c r="BC34" s="11"/>
+      <c r="BD34" s="11"/>
+      <c r="BE34" s="11"/>
+      <c r="BF34" s="11"/>
+      <c r="BG34" s="11"/>
+      <c r="BH34" s="11"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="11"/>
+      <c r="BK34" s="11"/>
+      <c r="BL34" s="11"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="37">
+        <v>45348</v>
+      </c>
+      <c r="F35" s="37">
+        <v>45397</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="11"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="11"/>
+      <c r="AM35" s="11"/>
+      <c r="AN35" s="11"/>
+      <c r="AO35" s="11"/>
+      <c r="AP35" s="11"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="11"/>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="11"/>
+      <c r="AU35" s="11"/>
+      <c r="AV35" s="11"/>
+      <c r="AW35" s="11"/>
+      <c r="AX35" s="11"/>
+      <c r="AY35" s="11"/>
+      <c r="AZ35" s="11"/>
+      <c r="BA35" s="11"/>
+      <c r="BB35" s="11"/>
+      <c r="BC35" s="11"/>
+      <c r="BD35" s="11"/>
+      <c r="BE35" s="11"/>
+      <c r="BF35" s="11"/>
+      <c r="BG35" s="11"/>
+      <c r="BH35" s="11"/>
+      <c r="BI35" s="11"/>
+      <c r="BJ35" s="11"/>
+      <c r="BK35" s="11"/>
+      <c r="BL35" s="11"/>
+    </row>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="11"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="11"/>
+      <c r="AM36" s="11"/>
+      <c r="AN36" s="11"/>
+      <c r="AO36" s="11"/>
+      <c r="AP36" s="11"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="11"/>
+      <c r="AS36" s="11"/>
+      <c r="AT36" s="11"/>
+      <c r="AU36" s="11"/>
+      <c r="AV36" s="11"/>
+      <c r="AW36" s="11"/>
+      <c r="AX36" s="11"/>
+      <c r="AY36" s="11"/>
+      <c r="AZ36" s="11"/>
+      <c r="BA36" s="11"/>
+      <c r="BB36" s="11"/>
+      <c r="BC36" s="11"/>
+      <c r="BD36" s="11"/>
+      <c r="BE36" s="11"/>
+      <c r="BF36" s="11"/>
+      <c r="BG36" s="11"/>
+      <c r="BH36" s="11"/>
+      <c r="BI36" s="11"/>
+      <c r="BJ36" s="11"/>
+      <c r="BK36" s="11"/>
+      <c r="BL36" s="11"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1">
+      <c r="B37" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F37" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="11"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="11"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="11"/>
+      <c r="BD37" s="11"/>
+      <c r="BE37" s="11"/>
+      <c r="BF37" s="11"/>
+      <c r="BG37" s="11"/>
+      <c r="BH37" s="11"/>
+      <c r="BI37" s="11"/>
+      <c r="BJ37" s="11"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="11"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1">
+      <c r="B38" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="50"/>
+      <c r="E38" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F38" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="11"/>
+      <c r="AJ38" s="11"/>
+      <c r="AK38" s="11"/>
+      <c r="AL38" s="11"/>
+      <c r="AM38" s="11"/>
+      <c r="AN38" s="11"/>
+      <c r="AO38" s="11"/>
+      <c r="AP38" s="11"/>
+      <c r="AQ38" s="11"/>
+      <c r="AR38" s="11"/>
+      <c r="AS38" s="11"/>
+      <c r="AT38" s="11"/>
+      <c r="AU38" s="11"/>
+      <c r="AV38" s="11"/>
+      <c r="AW38" s="11"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="11"/>
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="11"/>
+      <c r="BB38" s="11"/>
+      <c r="BC38" s="11"/>
+      <c r="BD38" s="11"/>
+      <c r="BE38" s="11"/>
+      <c r="BF38" s="11"/>
+      <c r="BG38" s="11"/>
+      <c r="BH38" s="11"/>
+      <c r="BI38" s="11"/>
+      <c r="BJ38" s="11"/>
+      <c r="BK38" s="11"/>
+      <c r="BL38" s="11"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1">
+      <c r="B39" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F39" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="11"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="11"/>
+      <c r="AX39" s="11"/>
+      <c r="AY39" s="11"/>
+      <c r="AZ39" s="11"/>
+      <c r="BA39" s="11"/>
+      <c r="BB39" s="11"/>
+      <c r="BC39" s="11"/>
+      <c r="BD39" s="11"/>
+      <c r="BE39" s="11"/>
+      <c r="BF39" s="11"/>
+      <c r="BG39" s="11"/>
+      <c r="BH39" s="11"/>
+      <c r="BI39" s="11"/>
+      <c r="BJ39" s="11"/>
+      <c r="BK39" s="11"/>
+      <c r="BL39" s="11"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1">
+      <c r="B40" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F40" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="11"/>
+      <c r="AJ40" s="11"/>
+      <c r="AK40" s="11"/>
+      <c r="AL40" s="11"/>
+      <c r="AM40" s="11"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="11"/>
+      <c r="AP40" s="11"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="11"/>
+      <c r="AS40" s="11"/>
+      <c r="AT40" s="11"/>
+      <c r="AU40" s="11"/>
+      <c r="AV40" s="11"/>
+      <c r="AW40" s="11"/>
+      <c r="AX40" s="11"/>
+      <c r="AY40" s="11"/>
+      <c r="AZ40" s="11"/>
+      <c r="BA40" s="11"/>
+      <c r="BB40" s="11"/>
+      <c r="BC40" s="11"/>
+      <c r="BD40" s="11"/>
+      <c r="BE40" s="11"/>
+      <c r="BF40" s="11"/>
+      <c r="BG40" s="11"/>
+      <c r="BH40" s="11"/>
+      <c r="BI40" s="11"/>
+      <c r="BJ40" s="11"/>
+      <c r="BK40" s="11"/>
+      <c r="BL40" s="11"/>
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1">
+      <c r="B41" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F41" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="11"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="11"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="11"/>
+      <c r="AP41" s="11"/>
+      <c r="AQ41" s="11"/>
+      <c r="AR41" s="11"/>
+      <c r="AS41" s="11"/>
+      <c r="AT41" s="11"/>
+      <c r="AU41" s="11"/>
+      <c r="AV41" s="11"/>
+      <c r="AW41" s="11"/>
+      <c r="AX41" s="11"/>
+      <c r="AY41" s="11"/>
+      <c r="AZ41" s="11"/>
+      <c r="BA41" s="11"/>
+      <c r="BB41" s="11"/>
+      <c r="BC41" s="11"/>
+      <c r="BD41" s="11"/>
+      <c r="BE41" s="11"/>
+      <c r="BF41" s="11"/>
+      <c r="BG41" s="11"/>
+      <c r="BH41" s="11"/>
+      <c r="BI41" s="11"/>
+      <c r="BJ41" s="11"/>
+      <c r="BK41" s="11"/>
+      <c r="BL41" s="11"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1">
+      <c r="B42" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="50"/>
+      <c r="E42" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F42" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
+      <c r="AM42" s="11"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="11"/>
+      <c r="AP42" s="11"/>
+      <c r="AQ42" s="11"/>
+      <c r="AR42" s="11"/>
+      <c r="AS42" s="11"/>
+      <c r="AT42" s="11"/>
+      <c r="AU42" s="11"/>
+      <c r="AV42" s="11"/>
+      <c r="AW42" s="11"/>
+      <c r="AX42" s="11"/>
+      <c r="AY42" s="11"/>
+      <c r="AZ42" s="11"/>
+      <c r="BA42" s="11"/>
+      <c r="BB42" s="11"/>
+      <c r="BC42" s="11"/>
+      <c r="BD42" s="11"/>
+      <c r="BE42" s="11"/>
+      <c r="BF42" s="11"/>
+      <c r="BG42" s="11"/>
+      <c r="BH42" s="11"/>
+      <c r="BI42" s="11"/>
+      <c r="BJ42" s="11"/>
+      <c r="BK42" s="11"/>
+      <c r="BL42" s="11"/>
+    </row>
+    <row r="43" spans="1:64" ht="30" customHeight="1">
+      <c r="B43" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="50"/>
+      <c r="E43" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F43" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
+      <c r="AJ43" s="11"/>
+      <c r="AK43" s="11"/>
+      <c r="AL43" s="11"/>
+      <c r="AM43" s="11"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="11"/>
+      <c r="AP43" s="11"/>
+      <c r="AQ43" s="11"/>
+      <c r="AR43" s="11"/>
+      <c r="AS43" s="11"/>
+      <c r="AT43" s="11"/>
+      <c r="AU43" s="11"/>
+      <c r="AV43" s="11"/>
+      <c r="AW43" s="11"/>
+      <c r="AX43" s="11"/>
+      <c r="AY43" s="11"/>
+      <c r="AZ43" s="11"/>
+      <c r="BA43" s="11"/>
+      <c r="BB43" s="11"/>
+      <c r="BC43" s="11"/>
+      <c r="BD43" s="11"/>
+      <c r="BE43" s="11"/>
+      <c r="BF43" s="11"/>
+      <c r="BG43" s="11"/>
+      <c r="BH43" s="11"/>
+      <c r="BI43" s="11"/>
+      <c r="BJ43" s="11"/>
+      <c r="BK43" s="11"/>
+      <c r="BL43" s="11"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1">
+      <c r="B44" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F44" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="11"/>
+      <c r="AJ44" s="11"/>
+      <c r="AK44" s="11"/>
+      <c r="AL44" s="11"/>
+      <c r="AM44" s="11"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="11"/>
+      <c r="AP44" s="11"/>
+      <c r="AQ44" s="11"/>
+      <c r="AR44" s="11"/>
+      <c r="AS44" s="11"/>
+      <c r="AT44" s="11"/>
+      <c r="AU44" s="11"/>
+      <c r="AV44" s="11"/>
+      <c r="AW44" s="11"/>
+      <c r="AX44" s="11"/>
+      <c r="AY44" s="11"/>
+      <c r="AZ44" s="11"/>
+      <c r="BA44" s="11"/>
+      <c r="BB44" s="11"/>
+      <c r="BC44" s="11"/>
+      <c r="BD44" s="11"/>
+      <c r="BE44" s="11"/>
+      <c r="BF44" s="11"/>
+      <c r="BG44" s="11"/>
+      <c r="BH44" s="11"/>
+      <c r="BI44" s="11"/>
+      <c r="BJ44" s="11"/>
+      <c r="BK44" s="11"/>
+      <c r="BL44" s="11"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1">
+      <c r="B45" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F45" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="11"/>
+      <c r="AM45" s="11"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="11"/>
+      <c r="AP45" s="11"/>
+      <c r="AQ45" s="11"/>
+      <c r="AR45" s="11"/>
+      <c r="AS45" s="11"/>
+      <c r="AT45" s="11"/>
+      <c r="AU45" s="11"/>
+      <c r="AV45" s="11"/>
+      <c r="AW45" s="11"/>
+      <c r="AX45" s="11"/>
+      <c r="AY45" s="11"/>
+      <c r="AZ45" s="11"/>
+      <c r="BA45" s="11"/>
+      <c r="BB45" s="11"/>
+      <c r="BC45" s="11"/>
+      <c r="BD45" s="11"/>
+      <c r="BE45" s="11"/>
+      <c r="BF45" s="11"/>
+      <c r="BG45" s="11"/>
+      <c r="BH45" s="11"/>
+      <c r="BI45" s="11"/>
+      <c r="BJ45" s="11"/>
+      <c r="BK45" s="11"/>
+      <c r="BL45" s="11"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1">
+      <c r="B46" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F46" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="11"/>
+      <c r="AK46" s="11"/>
+      <c r="AL46" s="11"/>
+      <c r="AM46" s="11"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="11"/>
+      <c r="AP46" s="11"/>
+      <c r="AQ46" s="11"/>
+      <c r="AR46" s="11"/>
+      <c r="AS46" s="11"/>
+      <c r="AT46" s="11"/>
+      <c r="AU46" s="11"/>
+      <c r="AV46" s="11"/>
+      <c r="AW46" s="11"/>
+      <c r="AX46" s="11"/>
+      <c r="AY46" s="11"/>
+      <c r="AZ46" s="11"/>
+      <c r="BA46" s="11"/>
+      <c r="BB46" s="11"/>
+      <c r="BC46" s="11"/>
+      <c r="BD46" s="11"/>
+      <c r="BE46" s="11"/>
+      <c r="BF46" s="11"/>
+      <c r="BG46" s="11"/>
+      <c r="BH46" s="11"/>
+      <c r="BI46" s="11"/>
+      <c r="BJ46" s="11"/>
+      <c r="BK46" s="11"/>
+      <c r="BL46" s="11"/>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1">
+      <c r="B47" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F47" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+      <c r="AK47" s="11"/>
+      <c r="AL47" s="11"/>
+      <c r="AM47" s="11"/>
+      <c r="AN47" s="11"/>
+      <c r="AO47" s="11"/>
+      <c r="AP47" s="11"/>
+      <c r="AQ47" s="11"/>
+      <c r="AR47" s="11"/>
+      <c r="AS47" s="11"/>
+      <c r="AT47" s="11"/>
+      <c r="AU47" s="11"/>
+      <c r="AV47" s="11"/>
+      <c r="AW47" s="11"/>
+      <c r="AX47" s="11"/>
+      <c r="AY47" s="11"/>
+      <c r="AZ47" s="11"/>
+      <c r="BA47" s="11"/>
+      <c r="BB47" s="11"/>
+      <c r="BC47" s="11"/>
+      <c r="BD47" s="11"/>
+      <c r="BE47" s="11"/>
+      <c r="BF47" s="11"/>
+      <c r="BG47" s="11"/>
+      <c r="BH47" s="11"/>
+      <c r="BI47" s="11"/>
+      <c r="BJ47" s="11"/>
+      <c r="BK47" s="11"/>
+      <c r="BL47" s="11"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1">
+      <c r="B48" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="50"/>
+      <c r="E48" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F48" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="11"/>
+      <c r="AN48" s="11"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="11"/>
+      <c r="AX48" s="11"/>
+      <c r="AY48" s="11"/>
+      <c r="AZ48" s="11"/>
+      <c r="BA48" s="11"/>
+      <c r="BB48" s="11"/>
+      <c r="BC48" s="11"/>
+      <c r="BD48" s="11"/>
+      <c r="BE48" s="11"/>
+      <c r="BF48" s="11"/>
+      <c r="BG48" s="11"/>
+      <c r="BH48" s="11"/>
+      <c r="BI48" s="11"/>
+      <c r="BJ48" s="11"/>
+      <c r="BK48" s="11"/>
+      <c r="BL48" s="11"/>
+    </row>
+    <row r="49" spans="2:64" ht="30" customHeight="1">
+      <c r="B49" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="50"/>
+      <c r="E49" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F49" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
+      <c r="X49" s="11"/>
+      <c r="Y49" s="11"/>
+      <c r="Z49" s="11"/>
+      <c r="AA49" s="11"/>
+      <c r="AB49" s="11"/>
+      <c r="AC49" s="11"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11"/>
+      <c r="AF49" s="11"/>
+      <c r="AG49" s="11"/>
+      <c r="AH49" s="11"/>
+      <c r="AI49" s="11"/>
+      <c r="AJ49" s="11"/>
+      <c r="AK49" s="11"/>
+      <c r="AL49" s="11"/>
+      <c r="AM49" s="11"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="11"/>
+      <c r="AP49" s="11"/>
+      <c r="AQ49" s="11"/>
+      <c r="AR49" s="11"/>
+      <c r="AS49" s="11"/>
+      <c r="AT49" s="11"/>
+      <c r="AU49" s="11"/>
+      <c r="AV49" s="11"/>
+      <c r="AW49" s="11"/>
+      <c r="AX49" s="11"/>
+      <c r="AY49" s="11"/>
+      <c r="AZ49" s="11"/>
+      <c r="BA49" s="11"/>
+      <c r="BB49" s="11"/>
+      <c r="BC49" s="11"/>
+      <c r="BD49" s="11"/>
+      <c r="BE49" s="11"/>
+      <c r="BF49" s="11"/>
+      <c r="BG49" s="11"/>
+      <c r="BH49" s="11"/>
+      <c r="BI49" s="11"/>
+      <c r="BJ49" s="11"/>
+      <c r="BK49" s="11"/>
+      <c r="BL49" s="11"/>
+    </row>
+    <row r="50" spans="2:64" ht="30" customHeight="1">
+      <c r="B50" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="14"/>
-      <c r="AH25" s="14"/>
-      <c r="AI25" s="14"/>
-      <c r="AJ25" s="14"/>
-      <c r="AK25" s="14"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="14"/>
-      <c r="AO25" s="14"/>
-      <c r="AP25" s="14"/>
-      <c r="AQ25" s="14"/>
-      <c r="AR25" s="14"/>
-      <c r="AS25" s="14"/>
-      <c r="AT25" s="14"/>
-      <c r="AU25" s="14"/>
-      <c r="AV25" s="14"/>
-      <c r="AW25" s="14"/>
-      <c r="AX25" s="14"/>
-      <c r="AY25" s="14"/>
-      <c r="AZ25" s="14"/>
-      <c r="BA25" s="14"/>
-      <c r="BB25" s="14"/>
-      <c r="BC25" s="14"/>
-      <c r="BD25" s="14"/>
-      <c r="BE25" s="14"/>
-      <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="14"/>
-      <c r="BI25" s="14"/>
-      <c r="BJ25" s="14"/>
-      <c r="BK25" s="14"/>
-      <c r="BL25" s="14"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F50" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="11"/>
+      <c r="AA50" s="11"/>
+      <c r="AB50" s="11"/>
+      <c r="AC50" s="11"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11"/>
+      <c r="AF50" s="11"/>
+      <c r="AG50" s="11"/>
+      <c r="AH50" s="11"/>
+      <c r="AI50" s="11"/>
+      <c r="AJ50" s="11"/>
+      <c r="AK50" s="11"/>
+      <c r="AL50" s="11"/>
+      <c r="AM50" s="11"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="11"/>
+      <c r="AP50" s="11"/>
+      <c r="AQ50" s="11"/>
+      <c r="AR50" s="11"/>
+      <c r="AS50" s="11"/>
+      <c r="AT50" s="11"/>
+      <c r="AU50" s="11"/>
+      <c r="AV50" s="11"/>
+      <c r="AW50" s="11"/>
+      <c r="AX50" s="11"/>
+      <c r="AY50" s="11"/>
+      <c r="AZ50" s="11"/>
+      <c r="BA50" s="11"/>
+      <c r="BB50" s="11"/>
+      <c r="BC50" s="11"/>
+      <c r="BD50" s="11"/>
+      <c r="BE50" s="11"/>
+      <c r="BF50" s="11"/>
+      <c r="BG50" s="11"/>
+      <c r="BH50" s="11"/>
+      <c r="BI50" s="11"/>
+      <c r="BJ50" s="11"/>
+      <c r="BK50" s="11"/>
+      <c r="BL50" s="11"/>
     </row>
-    <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="37">
-        <v>1</v>
-      </c>
-      <c r="E26" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F26" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="14"/>
-      <c r="AH26" s="14"/>
-      <c r="AI26" s="14"/>
-      <c r="AJ26" s="14"/>
-      <c r="AK26" s="14"/>
-      <c r="AL26" s="14"/>
-      <c r="AM26" s="14"/>
-      <c r="AN26" s="14"/>
-      <c r="AO26" s="14"/>
-      <c r="AP26" s="14"/>
-      <c r="AQ26" s="14"/>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="14"/>
-      <c r="AV26" s="14"/>
-      <c r="AW26" s="14"/>
-      <c r="AX26" s="14"/>
-      <c r="AY26" s="14"/>
-      <c r="AZ26" s="14"/>
-      <c r="BA26" s="14"/>
-      <c r="BB26" s="14"/>
-      <c r="BC26" s="14"/>
-      <c r="BD26" s="14"/>
-      <c r="BE26" s="14"/>
-      <c r="BF26" s="14"/>
-      <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="14"/>
-      <c r="BJ26" s="14"/>
-      <c r="BK26" s="14"/>
-      <c r="BL26" s="14"/>
-    </row>
-    <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="37">
-        <v>1</v>
-      </c>
-      <c r="E27" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F27" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="14"/>
-      <c r="AH27" s="14"/>
-      <c r="AI27" s="14"/>
-      <c r="AJ27" s="14"/>
-      <c r="AK27" s="14"/>
-      <c r="AL27" s="14"/>
-      <c r="AM27" s="14"/>
-      <c r="AN27" s="14"/>
-      <c r="AO27" s="14"/>
-      <c r="AP27" s="14"/>
-      <c r="AQ27" s="14"/>
-      <c r="AR27" s="14"/>
-      <c r="AS27" s="14"/>
-      <c r="AT27" s="14"/>
-      <c r="AU27" s="14"/>
-      <c r="AV27" s="14"/>
-      <c r="AW27" s="14"/>
-      <c r="AX27" s="14"/>
-      <c r="AY27" s="14"/>
-      <c r="AZ27" s="14"/>
-      <c r="BA27" s="14"/>
-      <c r="BB27" s="14"/>
-      <c r="BC27" s="14"/>
-      <c r="BD27" s="14"/>
-      <c r="BE27" s="14"/>
-      <c r="BF27" s="14"/>
-      <c r="BG27" s="14"/>
-      <c r="BH27" s="14"/>
-      <c r="BI27" s="14"/>
-      <c r="BJ27" s="14"/>
-      <c r="BK27" s="14"/>
-      <c r="BL27" s="14"/>
-    </row>
-    <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="37">
-        <v>1</v>
-      </c>
-      <c r="E28" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F28" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="14"/>
-      <c r="AH28" s="14"/>
-      <c r="AI28" s="14"/>
-      <c r="AJ28" s="14"/>
-      <c r="AK28" s="14"/>
-      <c r="AL28" s="14"/>
-      <c r="AM28" s="14"/>
-      <c r="AN28" s="14"/>
-      <c r="AO28" s="14"/>
-      <c r="AP28" s="14"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="14"/>
-      <c r="AS28" s="14"/>
-      <c r="AT28" s="14"/>
-      <c r="AU28" s="14"/>
-      <c r="AV28" s="14"/>
-      <c r="AW28" s="14"/>
-      <c r="AX28" s="14"/>
-      <c r="AY28" s="14"/>
-      <c r="AZ28" s="14"/>
-      <c r="BA28" s="14"/>
-      <c r="BB28" s="14"/>
-      <c r="BC28" s="14"/>
-      <c r="BD28" s="14"/>
-      <c r="BE28" s="14"/>
-      <c r="BF28" s="14"/>
-      <c r="BG28" s="14"/>
-      <c r="BH28" s="14"/>
-      <c r="BI28" s="14"/>
-      <c r="BJ28" s="14"/>
-      <c r="BK28" s="14"/>
-      <c r="BL28" s="14"/>
-    </row>
-    <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="37">
-        <v>1</v>
-      </c>
-      <c r="E29" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F29" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
-      <c r="AD29" s="14"/>
-      <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="14"/>
-      <c r="AH29" s="14"/>
-      <c r="AI29" s="14"/>
-      <c r="AJ29" s="14"/>
-      <c r="AK29" s="14"/>
-      <c r="AL29" s="14"/>
-      <c r="AM29" s="14"/>
-      <c r="AN29" s="14"/>
-      <c r="AO29" s="14"/>
-      <c r="AP29" s="14"/>
-      <c r="AQ29" s="14"/>
-      <c r="AR29" s="14"/>
-      <c r="AS29" s="14"/>
-      <c r="AT29" s="14"/>
-      <c r="AU29" s="14"/>
-      <c r="AV29" s="14"/>
-      <c r="AW29" s="14"/>
-      <c r="AX29" s="14"/>
-      <c r="AY29" s="14"/>
-      <c r="AZ29" s="14"/>
-      <c r="BA29" s="14"/>
-      <c r="BB29" s="14"/>
-      <c r="BC29" s="14"/>
-      <c r="BD29" s="14"/>
-      <c r="BE29" s="14"/>
-      <c r="BF29" s="14"/>
-      <c r="BG29" s="14"/>
-      <c r="BH29" s="14"/>
-      <c r="BI29" s="14"/>
-      <c r="BJ29" s="14"/>
-      <c r="BK29" s="14"/>
-      <c r="BL29" s="14"/>
-    </row>
-    <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="37">
-        <v>1</v>
-      </c>
-      <c r="E30" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F30" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="14"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="14"/>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="14"/>
-      <c r="AI30" s="14"/>
-      <c r="AJ30" s="14"/>
-      <c r="AK30" s="14"/>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="14"/>
-      <c r="AN30" s="14"/>
-      <c r="AO30" s="14"/>
-      <c r="AP30" s="14"/>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="14"/>
-      <c r="AS30" s="14"/>
-      <c r="AT30" s="14"/>
-      <c r="AU30" s="14"/>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="14"/>
-      <c r="AX30" s="14"/>
-      <c r="AY30" s="14"/>
-      <c r="AZ30" s="14"/>
-      <c r="BA30" s="14"/>
-      <c r="BB30" s="14"/>
-      <c r="BC30" s="14"/>
-      <c r="BD30" s="14"/>
-      <c r="BE30" s="14"/>
-      <c r="BF30" s="14"/>
-      <c r="BG30" s="14"/>
-      <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
-      <c r="BJ30" s="14"/>
-      <c r="BK30" s="14"/>
-      <c r="BL30" s="14"/>
-    </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="37">
-        <v>1</v>
-      </c>
-      <c r="E31" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F31" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="14"/>
-      <c r="AD31" s="14"/>
-      <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="14"/>
-      <c r="AI31" s="14"/>
-      <c r="AJ31" s="14"/>
-      <c r="AK31" s="14"/>
-      <c r="AL31" s="14"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="14"/>
-      <c r="AO31" s="14"/>
-      <c r="AP31" s="14"/>
-      <c r="AQ31" s="14"/>
-      <c r="AR31" s="14"/>
-      <c r="AS31" s="14"/>
-      <c r="AT31" s="14"/>
-      <c r="AU31" s="14"/>
-      <c r="AV31" s="14"/>
-      <c r="AW31" s="14"/>
-      <c r="AX31" s="14"/>
-      <c r="AY31" s="14"/>
-      <c r="AZ31" s="14"/>
-      <c r="BA31" s="14"/>
-      <c r="BB31" s="14"/>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="14"/>
-      <c r="BE31" s="14"/>
-      <c r="BF31" s="14"/>
-      <c r="BG31" s="14"/>
-      <c r="BH31" s="14"/>
-      <c r="BI31" s="14"/>
-      <c r="BJ31" s="14"/>
-      <c r="BK31" s="14"/>
-      <c r="BL31" s="14"/>
-    </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="37">
-        <v>1</v>
-      </c>
-      <c r="E32" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F32" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="14"/>
-      <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="14"/>
-      <c r="AH32" s="14"/>
-      <c r="AI32" s="14"/>
-      <c r="AJ32" s="14"/>
-      <c r="AK32" s="14"/>
-      <c r="AL32" s="14"/>
-      <c r="AM32" s="14"/>
-      <c r="AN32" s="14"/>
-      <c r="AO32" s="14"/>
-      <c r="AP32" s="14"/>
-      <c r="AQ32" s="14"/>
-      <c r="AR32" s="14"/>
-      <c r="AS32" s="14"/>
-      <c r="AT32" s="14"/>
-      <c r="AU32" s="14"/>
-      <c r="AV32" s="14"/>
-      <c r="AW32" s="14"/>
-      <c r="AX32" s="14"/>
-      <c r="AY32" s="14"/>
-      <c r="AZ32" s="14"/>
-      <c r="BA32" s="14"/>
-      <c r="BB32" s="14"/>
-      <c r="BC32" s="14"/>
-      <c r="BD32" s="14"/>
-      <c r="BE32" s="14"/>
-      <c r="BF32" s="14"/>
-      <c r="BG32" s="14"/>
-      <c r="BH32" s="14"/>
-      <c r="BI32" s="14"/>
-      <c r="BJ32" s="14"/>
-      <c r="BK32" s="14"/>
-      <c r="BL32" s="14"/>
-    </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="37">
-        <v>1</v>
-      </c>
-      <c r="E33" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F33" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="14"/>
-      <c r="AI33" s="14"/>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="14"/>
-      <c r="AN33" s="14"/>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="14"/>
-      <c r="AS33" s="14"/>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="14"/>
-      <c r="AX33" s="14"/>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="14"/>
-      <c r="BC33" s="14"/>
-      <c r="BD33" s="14"/>
-      <c r="BE33" s="14"/>
-      <c r="BF33" s="14"/>
-      <c r="BG33" s="14"/>
-      <c r="BH33" s="14"/>
-      <c r="BI33" s="14"/>
-      <c r="BJ33" s="14"/>
-      <c r="BK33" s="14"/>
-      <c r="BL33" s="14"/>
-    </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="37">
-        <v>1</v>
-      </c>
-      <c r="E34" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F34" s="41">
-        <v>45365</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AD34" s="14"/>
-      <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-      <c r="AH34" s="14"/>
-      <c r="AI34" s="14"/>
-      <c r="AJ34" s="14"/>
-      <c r="AK34" s="14"/>
-      <c r="AL34" s="14"/>
-      <c r="AM34" s="14"/>
-      <c r="AN34" s="14"/>
-      <c r="AO34" s="14"/>
-      <c r="AP34" s="14"/>
-      <c r="AQ34" s="14"/>
-      <c r="AR34" s="14"/>
-      <c r="AS34" s="14"/>
-      <c r="AT34" s="14"/>
-      <c r="AU34" s="14"/>
-      <c r="AV34" s="14"/>
-      <c r="AW34" s="14"/>
-      <c r="AX34" s="14"/>
-      <c r="AY34" s="14"/>
-      <c r="AZ34" s="14"/>
-      <c r="BA34" s="14"/>
-      <c r="BB34" s="14"/>
-      <c r="BC34" s="14"/>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="14"/>
-      <c r="BF34" s="14"/>
-      <c r="BG34" s="14"/>
-      <c r="BH34" s="14"/>
-      <c r="BI34" s="14"/>
-      <c r="BJ34" s="14"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-    </row>
-    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="37">
-        <v>0.35</v>
-      </c>
-      <c r="E35" s="41">
-        <v>45348</v>
-      </c>
-      <c r="F35" s="41">
-        <v>45397</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
-      <c r="Y35" s="14"/>
-      <c r="Z35" s="14"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="14"/>
-      <c r="AD35" s="14"/>
-      <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="14"/>
-      <c r="AH35" s="14"/>
-      <c r="AI35" s="14"/>
-      <c r="AJ35" s="14"/>
-      <c r="AK35" s="14"/>
-      <c r="AL35" s="14"/>
-      <c r="AM35" s="14"/>
-      <c r="AN35" s="14"/>
-      <c r="AO35" s="14"/>
-      <c r="AP35" s="14"/>
-      <c r="AQ35" s="14"/>
-      <c r="AR35" s="14"/>
-      <c r="AS35" s="14"/>
-      <c r="AT35" s="14"/>
-      <c r="AU35" s="14"/>
-      <c r="AV35" s="14"/>
-      <c r="AW35" s="14"/>
-      <c r="AX35" s="14"/>
-      <c r="AY35" s="14"/>
-      <c r="AZ35" s="14"/>
-      <c r="BA35" s="14"/>
-      <c r="BB35" s="14"/>
-      <c r="BC35" s="14"/>
-      <c r="BD35" s="14"/>
-      <c r="BE35" s="14"/>
-      <c r="BF35" s="14"/>
-      <c r="BG35" s="14"/>
-      <c r="BH35" s="14"/>
-      <c r="BI35" s="14"/>
-      <c r="BJ35" s="14"/>
-      <c r="BK35" s="14"/>
-      <c r="BL35" s="14"/>
-    </row>
-    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="6"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="11"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="12"/>
+    <row r="51" spans="2:64" ht="30" customHeight="1">
+      <c r="B51" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="54">
+        <v>45368</v>
+      </c>
+      <c r="F51" s="54">
+        <v>45396</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
+      <c r="X51" s="11"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
+      <c r="AA51" s="11"/>
+      <c r="AB51" s="11"/>
+      <c r="AC51" s="11"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11"/>
+      <c r="AF51" s="11"/>
+      <c r="AG51" s="11"/>
+      <c r="AH51" s="11"/>
+      <c r="AI51" s="11"/>
+      <c r="AJ51" s="11"/>
+      <c r="AK51" s="11"/>
+      <c r="AL51" s="11"/>
+      <c r="AM51" s="11"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="11"/>
+      <c r="AP51" s="11"/>
+      <c r="AQ51" s="11"/>
+      <c r="AR51" s="11"/>
+      <c r="AS51" s="11"/>
+      <c r="AT51" s="11"/>
+      <c r="AU51" s="11"/>
+      <c r="AV51" s="11"/>
+      <c r="AW51" s="11"/>
+      <c r="AX51" s="11"/>
+      <c r="AY51" s="11"/>
+      <c r="AZ51" s="11"/>
+      <c r="BA51" s="11"/>
+      <c r="BB51" s="11"/>
+      <c r="BC51" s="11"/>
+      <c r="BD51" s="11"/>
+      <c r="BE51" s="11"/>
+      <c r="BF51" s="11"/>
+      <c r="BG51" s="11"/>
+      <c r="BH51" s="11"/>
+      <c r="BI51" s="11"/>
+      <c r="BJ51" s="11"/>
+      <c r="BK51" s="11"/>
+      <c r="BL51" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4783,8 +6403,8 @@
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
-    <cfRule type="dataBar" priority="35">
+  <conditionalFormatting sqref="D7:D51">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4798,76 +6418,245 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:BL29">
-    <cfRule type="expression" dxfId="20" priority="54">
+    <cfRule type="expression" dxfId="59" priority="93">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL29">
-    <cfRule type="expression" dxfId="19" priority="48">
+    <cfRule type="expression" dxfId="58" priority="87">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="88" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="17" priority="21">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:BL30">
-    <cfRule type="expression" dxfId="16" priority="19">
+    <cfRule type="expression" dxfId="55" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="53" priority="57">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="52" priority="55">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="56" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="10" priority="13">
+    <cfRule type="expression" dxfId="49" priority="52">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="53" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="47" priority="51">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:BL33">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="46" priority="49">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I34:BL34">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="44" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:BL35">
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="41" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:BL36">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL40">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37:BL40">
+    <cfRule type="expression" dxfId="34" priority="34">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41:BL41">
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="32" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="28" priority="28">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="29" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="22" priority="22">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:BL45">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL46">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:BL47">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BL48">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49:BL49">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="5" priority="6">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I34:BL34">
+  <conditionalFormatting sqref="I50:BL50">
     <cfRule type="expression" dxfId="4" priority="4">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4875,12 +6664,12 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:BL35">
+  <conditionalFormatting sqref="I51:BL51">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4915,7 +6704,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5241,42 +7030,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
 </file>